--- a/scalpel/typeinfer/evaluation/evaluation_outputs/littlecodersh__ItChat.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/littlecodersh__ItChat.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,14 +2086,28 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>1125</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr"/>
+      <c r="B53" s="2" t="inlineStr"/>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F53" s="2" t="n">
         <v>150</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/littlecodersh__ItChat.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/littlecodersh__ItChat.xlsx
@@ -2086,16 +2086,16 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>1125</v>
-      </c>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="n">
+        <v>91.84</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
